--- a/Constanta-Targoviste.xlsx
+++ b/Constanta-Targoviste.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Train Information</t>
   </si>
@@ -43,6 +41,21 @@
   </si>
   <si>
     <t>Length</t>
+  </si>
+  <si>
+    <t>la timp</t>
+  </si>
+  <si>
+    <t>sosește la timp la Târgoviște*</t>
+  </si>
+  <si>
+    <t>pleacă la timp din Titu*</t>
+  </si>
+  <si>
+    <t>pleacă la timp din București Nord*</t>
+  </si>
+  <si>
+    <t>sosește la timp la București Nord*</t>
   </si>
   <si>
     <t>pleacă la timp din Constanța*</t>
@@ -460,7 +473,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <v>0.66875000000000007</v>
@@ -471,7 +484,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <v>0.72361111111111109</v>
@@ -482,7 +495,7 @@
         <v>0.5625</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <v>0.75</v>
@@ -493,7 +506,7 @@
         <v>0.5625</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1">
         <v>0.79236111111111107</v>
@@ -504,7 +517,7 @@
         <v>0.59722222222222221</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <v>0.79236111111111107</v>
@@ -515,7 +528,7 @@
         <v>0.6875</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1">
         <v>0.88888888888888884</v>
@@ -524,28 +537,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>